--- a/data/trans_orig/IP1016-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1016-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB712436-47E5-46F4-A755-4E6DA7FD6AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C4FEE6-ED8B-4BF2-B0A2-F799BC8A9D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EDBB2A2E-7ECC-4ECF-BB8B-AC93D11803C9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{482BAFAA-D507-44D5-A393-058758B6F3C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="97">
   <si>
     <t>Menores según si padecen tumor maligno en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -205,43 +205,43 @@
     <t>0,15%</t>
   </si>
   <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
     <t>99,6%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,58%</t>
+    <t>0,64%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -253,7 +253,7 @@
     <t>99,9%</t>
   </si>
   <si>
-    <t>99,42%</t>
+    <t>99,36%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -262,7 +262,7 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>Menores según si padecen tumor maligno en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Menores según si padecen tumor maligno en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -286,19 +286,25 @@
     <t>0,16%</t>
   </si>
   <si>
+    <t>0,92%</t>
+  </si>
+  <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,33%</t>
+    <t>0,41%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
+    <t>99,08%</t>
+  </si>
+  <si>
     <t>99,92%</t>
   </si>
   <si>
-    <t>99,67%</t>
+    <t>99,59%</t>
   </si>
   <si>
     <t>0,71%</t>
@@ -316,13 +322,13 @@
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,48%</t>
+    <t>0,53%</t>
   </si>
   <si>
     <t>99,89%</t>
   </si>
   <si>
-    <t>99,52%</t>
+    <t>99,47%</t>
   </si>
 </sst>
 </file>
@@ -734,7 +740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D0C5ED-CB85-437E-A3E4-8C96702893BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528EB4FF-98D6-4D85-92FB-933911CC7FA2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1635,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25354099-3CE0-4464-A696-70F62F0AD121}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC834FC-DE03-42AA-BCEE-05BAF8B54207}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2084,7 +2090,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2093,13 +2099,13 @@
         <v>680</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,10 +2135,10 @@
         <v>449020</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -2144,10 +2150,10 @@
         <v>941423</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -2224,7 +2230,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2239,7 +2245,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2254,7 +2260,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,7 +2278,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -2287,7 +2293,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -2536,7 +2542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F20B150-013B-4821-A06D-3B87B5EF1AC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11555A27-159B-4585-BC79-BCEF084B157A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2958,7 +2964,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2982,13 +2988,13 @@
         <v>790</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,10 +3009,10 @@
         <v>487945</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -3033,10 +3039,10 @@
         <v>960235</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -3113,7 +3119,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3128,7 +3134,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3143,7 +3149,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,7 +3167,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -3176,7 +3182,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>18</v>
@@ -3191,7 +3197,7 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -3262,13 +3268,13 @@
         <v>790</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3298,7 +3304,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,10 +3319,10 @@
         <v>744054</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -3346,7 +3352,7 @@
         <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>16</v>

--- a/data/trans_orig/IP1016-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1016-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C4FEE6-ED8B-4BF2-B0A2-F799BC8A9D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE67B571-535B-45EF-9C6E-6E55A24BEEFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{482BAFAA-D507-44D5-A393-058758B6F3C1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F9F235EE-66B9-4730-85F4-19A264E91081}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="95">
   <si>
     <t>Menores según si padecen tumor maligno en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,10 +79,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -91,90 +94,75 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
+    <t>98,6%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>98,6%</t>
-  </si>
-  <si>
     <t>99,28%</t>
   </si>
   <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
     <t>0,27%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
     <t>0,14%</t>
   </si>
   <si>
+    <t>99,69%</t>
+  </si>
+  <si>
     <t>99,73%</t>
   </si>
   <si>
-    <t>99,69%</t>
-  </si>
-  <si>
     <t>99,86%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
+    <t>0,75%</t>
+  </si>
+  <si>
     <t>0,81%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
     <t>0,39%</t>
   </si>
   <si>
+    <t>99,25%</t>
+  </si>
+  <si>
     <t>99,19%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
     <t>99,61%</t>
   </si>
   <si>
+    <t>0,19%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
     <t>0,09%</t>
   </si>
   <si>
+    <t>99,81%</t>
+  </si>
+  <si>
     <t>99,82%</t>
   </si>
   <si>
-    <t>99,81%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
@@ -184,151 +172,157 @@
     <t>Menores según si padecen tumor maligno en 2012 (Tasa respuesta: 99,29%)</t>
   </si>
   <si>
+    <t>1,43%</t>
+  </si>
+  <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
     <t>0,76%</t>
   </si>
   <si>
+    <t>98,57%</t>
+  </si>
+  <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
     <t>99,24%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
+    <t>0,83%</t>
+  </si>
+  <si>
     <t>0,07%</t>
   </si>
   <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen tumor maligno en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen tumor maligno en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
     <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
   </si>
 </sst>
 </file>
@@ -740,8 +734,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{528EB4FF-98D6-4D85-92FB-933911CC7FA2}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF8E454-388C-4AA4-ADA5-AF71A9E569C9}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -875,12 +869,14 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -898,56 +894,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I5" s="7">
+        <v>86845</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -956,52 +954,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1019,7 +1019,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1049,58 +1049,58 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D8" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I8" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N8" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1109,54 +1109,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1174,7 +1174,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1204,58 +1204,58 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D11" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I11" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N11" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1264,54 +1264,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1329,7 +1329,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1359,58 +1359,58 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D14" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I14" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N14" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1419,216 +1419,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D17" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I17" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>46</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1641,8 +1485,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC834FC-DE03-42AA-BCEE-05BAF8B54207}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94493D7-9964-4DED-BC14-1BB3F000FED6}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1658,7 +1502,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1771,20 +1615,22 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -1799,56 +1645,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I5" s="7">
+        <v>83537</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,70 +1705,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I6" s="7">
+        <v>83537</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1935,73 +1785,73 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>650</v>
       </c>
       <c r="D8" s="7">
-        <v>83537</v>
+        <v>449020</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I8" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>250</v>
+        <v>1355</v>
       </c>
       <c r="N8" s="7">
-        <v>175425</v>
+        <v>941423</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,54 +1860,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>651</v>
       </c>
       <c r="D9" s="7">
-        <v>83537</v>
+        <v>449700</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>250</v>
+        <v>1356</v>
       </c>
       <c r="N9" s="7">
-        <v>175425</v>
+        <v>942103</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2075,88 +1925,88 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D11" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>650</v>
+        <v>243</v>
       </c>
       <c r="I11" s="7">
-        <v>449020</v>
+        <v>171561</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1355</v>
+        <v>477</v>
       </c>
       <c r="N11" s="7">
-        <v>941423</v>
+        <v>336901</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,72 +2015,72 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>651</v>
+        <v>243</v>
       </c>
       <c r="I12" s="7">
-        <v>449700</v>
+        <v>171561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1356</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>942103</v>
+        <v>336901</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2245,73 +2095,73 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>243</v>
+        <v>1017</v>
       </c>
       <c r="D14" s="7">
-        <v>171561</v>
+        <v>706248</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="I14" s="7">
-        <v>165340</v>
+        <v>747501</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>477</v>
+        <v>2082</v>
       </c>
       <c r="N14" s="7">
-        <v>336901</v>
+        <v>1453749</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2320,216 +2170,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>243</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>171561</v>
+        <v>706928</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>165340</v>
+        <v>747501</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2083</v>
       </c>
       <c r="N15" s="7">
-        <v>336901</v>
+        <v>1454429</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>680</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>680</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D17" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I17" s="7">
-        <v>706248</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2083</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1454390</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D18" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2084</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1455070</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>46</v>
+      <c r="A16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2542,8 +2236,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11555A27-159B-4585-BC79-BCEF084B157A}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76A69F1-2D5D-49CD-B169-6DEBBC769DAD}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2559,7 +2253,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2662,86 +2356,98 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D5" s="7">
+        <v>59378</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I5" s="7">
+        <v>68614</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N5" s="7">
+        <v>127993</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,48 +2456,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2809,88 +2521,88 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D8" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>89</v>
+        <v>694</v>
       </c>
       <c r="I8" s="7">
-        <v>59378</v>
+        <v>487945</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" s="7">
-        <v>188</v>
+        <v>1408</v>
       </c>
       <c r="N8" s="7">
-        <v>127993</v>
+        <v>960235</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,72 +2611,72 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2979,73 +2691,73 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>694</v>
+        <v>258</v>
       </c>
       <c r="D11" s="7">
-        <v>487945</v>
+        <v>172703</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I11" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1408</v>
+        <v>529</v>
       </c>
       <c r="N11" s="7">
-        <v>960235</v>
+        <v>360197</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,54 +2766,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3119,88 +2831,88 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D14" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>258</v>
+        <v>1064</v>
       </c>
       <c r="I14" s="7">
-        <v>172703</v>
+        <v>744054</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M14" s="7">
-        <v>529</v>
+        <v>2125</v>
       </c>
       <c r="N14" s="7">
-        <v>360197</v>
+        <v>1448425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3209,216 +2921,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>790</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>790</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1064</v>
-      </c>
-      <c r="D17" s="7">
-        <v>744054</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I17" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2125</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1448425</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>46</v>
+      <c r="A16" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
